--- a/data/raw/salary_data_1.xlsx
+++ b/data/raw/salary_data_1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23003"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50FB75C-A666-471F-8A76-1C8B995515C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47AB7179-296B-4D87-A89B-EE033AAF43C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3904,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B2EE8-E454-4198-871B-BFE8D7F2F65A}">
   <dimension ref="A1:G878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A503" sqref="A503:XFD503"/>
+    <sheetView tabSelected="1" topLeftCell="A864" workbookViewId="0">
+      <selection activeCell="G888" sqref="G888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3981,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -4050,7 +4050,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -4119,7 +4119,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -4142,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -4165,7 +4165,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -4188,7 +4188,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -4211,7 +4211,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -4251,7 +4251,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -4274,7 +4274,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -4297,7 +4297,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
         <v>40</v>
@@ -4320,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -4389,7 +4389,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -4435,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -4458,7 +4458,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -4481,7 +4481,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -4504,7 +4504,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -4527,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -4550,7 +4550,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -4573,7 +4573,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -4596,7 +4596,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
@@ -4616,7 +4616,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -4685,7 +4685,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -4708,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -4731,7 +4731,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -4754,7 +4754,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4800,7 +4800,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
         <v>40</v>
@@ -4823,7 +4823,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -4846,7 +4846,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -4892,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -4938,7 +4938,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -4961,7 +4961,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -4984,7 +4984,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -5030,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -5050,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -5096,7 +5096,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5119,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -5188,7 +5188,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -5211,7 +5211,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -5303,7 +5303,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -5326,7 +5326,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
@@ -5372,7 +5372,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -5418,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
@@ -5461,7 +5461,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -5484,7 +5484,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
@@ -5507,7 +5507,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -5530,7 +5530,7 @@
         <v>10</v>
       </c>
       <c r="F71" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -5576,7 +5576,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5599,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
@@ -5622,7 +5622,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
@@ -5645,7 +5645,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -5668,7 +5668,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -5714,7 +5714,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -5737,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -5760,7 +5760,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -5783,7 +5783,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -5806,7 +5806,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -5829,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -5852,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -5875,7 +5875,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5898,7 +5898,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -5921,7 +5921,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
@@ -5944,7 +5944,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -5967,7 +5967,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -5990,7 +5990,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -6013,7 +6013,7 @@
         <v>10</v>
       </c>
       <c r="F92" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -6102,7 +6102,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
@@ -6171,7 +6171,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
@@ -6194,7 +6194,7 @@
         <v>10</v>
       </c>
       <c r="F100" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -6401,7 +6401,7 @@
         <v>10</v>
       </c>
       <c r="F109" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
@@ -6605,7 +6605,7 @@
         <v>10</v>
       </c>
       <c r="F118" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -6674,7 +6674,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -6766,7 +6766,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
@@ -6901,7 +6901,7 @@
         <v>10</v>
       </c>
       <c r="F131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -6924,7 +6924,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -7016,7 +7016,7 @@
         <v>10</v>
       </c>
       <c r="F136" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -7039,7 +7039,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -7062,7 +7062,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -7085,7 +7085,7 @@
         <v>10</v>
       </c>
       <c r="F139" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -7108,7 +7108,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -7174,7 +7174,7 @@
         <v>10</v>
       </c>
       <c r="F143" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
@@ -7266,7 +7266,7 @@
         <v>10</v>
       </c>
       <c r="F147" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
@@ -7289,7 +7289,7 @@
         <v>10</v>
       </c>
       <c r="F148" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
@@ -7404,7 +7404,7 @@
         <v>10</v>
       </c>
       <c r="F153" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
@@ -7657,7 +7657,7 @@
         <v>10</v>
       </c>
       <c r="F164" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -7769,7 +7769,7 @@
         <v>10</v>
       </c>
       <c r="F169" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -8229,7 +8229,7 @@
         <v>10</v>
       </c>
       <c r="F189" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G189" t="s">
         <v>11</v>
@@ -8321,7 +8321,7 @@
         <v>10</v>
       </c>
       <c r="F193" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G193" t="s">
         <v>11</v>
@@ -8413,7 +8413,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G197" t="s">
         <v>11</v>
@@ -8459,7 +8459,7 @@
         <v>10</v>
       </c>
       <c r="F199" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G199" t="s">
         <v>11</v>
@@ -8551,7 +8551,7 @@
         <v>10</v>
       </c>
       <c r="F203" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G203" t="s">
         <v>11</v>
@@ -8732,7 +8732,7 @@
         <v>10</v>
       </c>
       <c r="F211" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G211" t="s">
         <v>40</v>
@@ -8893,7 +8893,7 @@
         <v>10</v>
       </c>
       <c r="F218" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G218" t="s">
         <v>11</v>
@@ -9353,7 +9353,7 @@
         <v>10</v>
       </c>
       <c r="F238" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G238" t="s">
         <v>11</v>
@@ -9468,7 +9468,7 @@
         <v>10</v>
       </c>
       <c r="F243" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G243" t="s">
         <v>11</v>
@@ -9491,7 +9491,7 @@
         <v>10</v>
       </c>
       <c r="F244" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G244" t="s">
         <v>11</v>
@@ -9514,7 +9514,7 @@
         <v>10</v>
       </c>
       <c r="F245" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G245" t="s">
         <v>11</v>
@@ -9560,7 +9560,7 @@
         <v>10</v>
       </c>
       <c r="F247" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G247" t="s">
         <v>11</v>
@@ -9925,7 +9925,7 @@
         <v>10</v>
       </c>
       <c r="F263" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G263" t="s">
         <v>11</v>
@@ -9994,7 +9994,7 @@
         <v>10</v>
       </c>
       <c r="F266" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G266" t="s">
         <v>11</v>
@@ -10175,7 +10175,7 @@
         <v>10</v>
       </c>
       <c r="F274" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G274" t="s">
         <v>11</v>
@@ -10586,7 +10586,7 @@
         <v>10</v>
       </c>
       <c r="F292" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G292" t="s">
         <v>11</v>
@@ -10724,7 +10724,7 @@
         <v>10</v>
       </c>
       <c r="F298" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G298" t="s">
         <v>11</v>
@@ -10885,7 +10885,7 @@
         <v>10</v>
       </c>
       <c r="F305" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G305" t="s">
         <v>11</v>
@@ -10974,7 +10974,7 @@
         <v>10</v>
       </c>
       <c r="F309" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G309" t="s">
         <v>11</v>
@@ -11089,7 +11089,7 @@
         <v>10</v>
       </c>
       <c r="F314" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G314" t="s">
         <v>11</v>
@@ -11181,7 +11181,7 @@
         <v>10</v>
       </c>
       <c r="F318" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G318" t="s">
         <v>11</v>
@@ -11365,7 +11365,7 @@
         <v>10</v>
       </c>
       <c r="F326" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G326" t="s">
         <v>11</v>
@@ -11503,7 +11503,7 @@
         <v>10</v>
       </c>
       <c r="F332" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G332" t="s">
         <v>11</v>
@@ -11848,7 +11848,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G347" t="s">
         <v>11</v>
@@ -12101,7 +12101,7 @@
         <v>10</v>
       </c>
       <c r="F358" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G358" t="s">
         <v>11</v>
@@ -12216,7 +12216,7 @@
         <v>10</v>
       </c>
       <c r="F363" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G363" t="s">
         <v>11</v>
@@ -12305,7 +12305,7 @@
         <v>10</v>
       </c>
       <c r="F367" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G367" t="s">
         <v>11</v>
@@ -12374,7 +12374,7 @@
         <v>10</v>
       </c>
       <c r="F370" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G370" t="s">
         <v>11</v>
@@ -12397,7 +12397,7 @@
         <v>10</v>
       </c>
       <c r="F371" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G371" t="s">
         <v>11</v>
@@ -12489,7 +12489,7 @@
         <v>10</v>
       </c>
       <c r="F375" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G375" t="s">
         <v>11</v>
@@ -12604,7 +12604,7 @@
         <v>10</v>
       </c>
       <c r="F380" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G380" t="s">
         <v>40</v>
@@ -12696,7 +12696,7 @@
         <v>10</v>
       </c>
       <c r="F384" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G384" t="s">
         <v>40</v>
@@ -12765,7 +12765,7 @@
         <v>10</v>
       </c>
       <c r="F387" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G387" t="s">
         <v>11</v>
@@ -12834,7 +12834,7 @@
         <v>10</v>
       </c>
       <c r="F390" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G390" t="s">
         <v>40</v>
@@ -12903,7 +12903,7 @@
         <v>10</v>
       </c>
       <c r="F393" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G393" t="s">
         <v>40</v>
@@ -12946,7 +12946,7 @@
         <v>10</v>
       </c>
       <c r="F395" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G395" t="s">
         <v>40</v>
@@ -13015,7 +13015,7 @@
         <v>10</v>
       </c>
       <c r="F398" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G398" t="s">
         <v>11</v>
@@ -13084,7 +13084,7 @@
         <v>10</v>
       </c>
       <c r="F401" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G401" t="s">
         <v>11</v>
@@ -13265,7 +13265,7 @@
         <v>10</v>
       </c>
       <c r="F409" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G409" t="s">
         <v>11</v>
@@ -13311,7 +13311,7 @@
         <v>10</v>
       </c>
       <c r="F411" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G411" t="s">
         <v>11</v>
@@ -13357,7 +13357,7 @@
         <v>10</v>
       </c>
       <c r="F413" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G413" t="s">
         <v>11</v>
@@ -13564,7 +13564,7 @@
         <v>10</v>
       </c>
       <c r="F422" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G422" t="s">
         <v>11</v>
@@ -13610,7 +13610,7 @@
         <v>10</v>
       </c>
       <c r="F424" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G424" t="s">
         <v>11</v>
@@ -13817,7 +13817,7 @@
         <v>10</v>
       </c>
       <c r="F433" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G433" t="s">
         <v>11</v>
@@ -13863,7 +13863,7 @@
         <v>10</v>
       </c>
       <c r="F435" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G435" t="s">
         <v>11</v>
@@ -13955,7 +13955,7 @@
         <v>10</v>
       </c>
       <c r="F439" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G439" t="s">
         <v>11</v>
@@ -14047,7 +14047,7 @@
         <v>10</v>
       </c>
       <c r="F443" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G443" t="s">
         <v>11</v>
@@ -14113,7 +14113,7 @@
         <v>10</v>
       </c>
       <c r="F446" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G446" t="s">
         <v>11</v>
@@ -14159,7 +14159,7 @@
         <v>10</v>
       </c>
       <c r="F448" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G448" t="s">
         <v>11</v>
@@ -14274,7 +14274,7 @@
         <v>10</v>
       </c>
       <c r="F453" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G453" t="s">
         <v>11</v>
@@ -14320,7 +14320,7 @@
         <v>10</v>
       </c>
       <c r="F455" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G455" t="s">
         <v>11</v>
@@ -14389,7 +14389,7 @@
         <v>10</v>
       </c>
       <c r="F458" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G458" t="s">
         <v>11</v>
@@ -14435,7 +14435,7 @@
         <v>10</v>
       </c>
       <c r="F460" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G460" t="s">
         <v>11</v>
@@ -14504,7 +14504,7 @@
         <v>10</v>
       </c>
       <c r="F463" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G463" t="s">
         <v>11</v>
@@ -14619,7 +14619,7 @@
         <v>10</v>
       </c>
       <c r="F468" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G468" t="s">
         <v>11</v>
@@ -14665,7 +14665,7 @@
         <v>10</v>
       </c>
       <c r="F470" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G470" t="s">
         <v>11</v>
@@ -14711,7 +14711,7 @@
         <v>10</v>
       </c>
       <c r="F472" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G472" t="s">
         <v>11</v>
@@ -14757,7 +14757,7 @@
         <v>10</v>
       </c>
       <c r="F474" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G474" t="s">
         <v>11</v>
@@ -14872,7 +14872,7 @@
         <v>10</v>
       </c>
       <c r="F479" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G479" t="s">
         <v>11</v>
@@ -14918,7 +14918,7 @@
         <v>10</v>
       </c>
       <c r="F481" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G481" t="s">
         <v>11</v>
@@ -15099,7 +15099,7 @@
         <v>10</v>
       </c>
       <c r="F489" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G489" t="s">
         <v>11</v>
@@ -15191,7 +15191,7 @@
         <v>10</v>
       </c>
       <c r="F493" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G493" t="s">
         <v>11</v>
@@ -15421,7 +15421,7 @@
         <v>10</v>
       </c>
       <c r="F503" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G503" t="s">
         <v>40</v>
@@ -15487,7 +15487,7 @@
         <v>10</v>
       </c>
       <c r="F506" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G506" t="s">
         <v>40</v>
@@ -15533,7 +15533,7 @@
         <v>10</v>
       </c>
       <c r="F508" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G508" t="s">
         <v>11</v>
@@ -15645,7 +15645,7 @@
         <v>10</v>
       </c>
       <c r="F513" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G513" t="s">
         <v>11</v>
@@ -15668,7 +15668,7 @@
         <v>10</v>
       </c>
       <c r="F514" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G514" t="s">
         <v>11</v>
@@ -15737,7 +15737,7 @@
         <v>10</v>
       </c>
       <c r="F517" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G517" t="s">
         <v>40</v>
@@ -15783,7 +15783,7 @@
         <v>10</v>
       </c>
       <c r="F519" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G519" t="s">
         <v>40</v>
@@ -15829,7 +15829,7 @@
         <v>10</v>
       </c>
       <c r="F521" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G521" t="s">
         <v>40</v>
@@ -15875,7 +15875,7 @@
         <v>10</v>
       </c>
       <c r="F523" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G523" t="s">
         <v>11</v>
@@ -15921,7 +15921,7 @@
         <v>10</v>
       </c>
       <c r="F525" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G525" t="s">
         <v>11</v>
@@ -15967,7 +15967,7 @@
         <v>10</v>
       </c>
       <c r="F527" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G527" t="s">
         <v>11</v>
@@ -16013,7 +16013,7 @@
         <v>10</v>
       </c>
       <c r="F529" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G529" t="s">
         <v>11</v>
@@ -16059,7 +16059,7 @@
         <v>10</v>
       </c>
       <c r="F531" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G531" t="s">
         <v>40</v>
@@ -16174,7 +16174,7 @@
         <v>10</v>
       </c>
       <c r="F536" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G536" t="s">
         <v>11</v>
@@ -16220,7 +16220,7 @@
         <v>10</v>
       </c>
       <c r="F538" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G538" t="s">
         <v>11</v>
@@ -16289,7 +16289,7 @@
         <v>10</v>
       </c>
       <c r="F541" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G541" t="s">
         <v>11</v>
@@ -16335,7 +16335,7 @@
         <v>10</v>
       </c>
       <c r="F543" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G543" t="s">
         <v>11</v>
@@ -16427,7 +16427,7 @@
         <v>10</v>
       </c>
       <c r="F547" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G547" t="s">
         <v>11</v>
@@ -16473,7 +16473,7 @@
         <v>10</v>
       </c>
       <c r="F549" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G549" t="s">
         <v>11</v>
@@ -16519,7 +16519,7 @@
         <v>10</v>
       </c>
       <c r="F551" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G551" t="s">
         <v>11</v>
@@ -16565,7 +16565,7 @@
         <v>10</v>
       </c>
       <c r="F553" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G553" t="s">
         <v>11</v>
@@ -16588,7 +16588,7 @@
         <v>10</v>
       </c>
       <c r="F554" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G554" t="s">
         <v>11</v>
@@ -16680,7 +16680,7 @@
         <v>10</v>
       </c>
       <c r="F558" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G558" t="s">
         <v>11</v>
@@ -16726,7 +16726,7 @@
         <v>10</v>
       </c>
       <c r="F560" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G560" t="s">
         <v>11</v>
@@ -16795,7 +16795,7 @@
         <v>10</v>
       </c>
       <c r="F563" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G563" t="s">
         <v>11</v>
@@ -16841,7 +16841,7 @@
         <v>10</v>
       </c>
       <c r="F565" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G565" t="s">
         <v>11</v>
@@ -16910,7 +16910,7 @@
         <v>10</v>
       </c>
       <c r="F568" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G568" t="s">
         <v>11</v>
@@ -16933,7 +16933,7 @@
         <v>10</v>
       </c>
       <c r="F569" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G569" t="s">
         <v>11</v>
@@ -17025,7 +17025,7 @@
         <v>10</v>
       </c>
       <c r="F573" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G573" t="s">
         <v>11</v>
@@ -17068,7 +17068,7 @@
         <v>10</v>
       </c>
       <c r="F575" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G575" t="s">
         <v>11</v>
@@ -17114,7 +17114,7 @@
         <v>10</v>
       </c>
       <c r="F577" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G577" t="s">
         <v>11</v>
@@ -17183,7 +17183,7 @@
         <v>10</v>
       </c>
       <c r="F580" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G580" t="s">
         <v>11</v>
@@ -17229,7 +17229,7 @@
         <v>10</v>
       </c>
       <c r="F582" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G582" t="s">
         <v>11</v>
@@ -17318,7 +17318,7 @@
         <v>10</v>
       </c>
       <c r="F586" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G586" t="s">
         <v>11</v>
@@ -17410,7 +17410,7 @@
         <v>10</v>
       </c>
       <c r="F590" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G590" t="s">
         <v>11</v>
@@ -17456,7 +17456,7 @@
         <v>10</v>
       </c>
       <c r="F592" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G592" t="s">
         <v>11</v>
@@ -17502,7 +17502,7 @@
         <v>10</v>
       </c>
       <c r="F594" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G594" t="s">
         <v>11</v>
@@ -17548,7 +17548,7 @@
         <v>10</v>
       </c>
       <c r="F596" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G596" t="s">
         <v>40</v>
@@ -17594,7 +17594,7 @@
         <v>10</v>
       </c>
       <c r="F598" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G598" t="s">
         <v>40</v>
@@ -17686,7 +17686,7 @@
         <v>10</v>
       </c>
       <c r="F602" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G602" t="s">
         <v>40</v>
@@ -17893,7 +17893,7 @@
         <v>10</v>
       </c>
       <c r="F611" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G611" t="s">
         <v>40</v>
@@ -17939,7 +17939,7 @@
         <v>10</v>
       </c>
       <c r="F613" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G613" t="s">
         <v>11</v>
@@ -18051,7 +18051,7 @@
         <v>10</v>
       </c>
       <c r="F618" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G618" t="s">
         <v>11</v>
@@ -18097,7 +18097,7 @@
         <v>10</v>
       </c>
       <c r="F620" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G620" t="s">
         <v>11</v>
@@ -18143,7 +18143,7 @@
         <v>10</v>
       </c>
       <c r="F622" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G622" t="s">
         <v>11</v>
@@ -18442,7 +18442,7 @@
         <v>10</v>
       </c>
       <c r="F635" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G635" t="s">
         <v>11</v>
@@ -18511,7 +18511,7 @@
         <v>10</v>
       </c>
       <c r="F638" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G638" t="s">
         <v>11</v>
@@ -18557,7 +18557,7 @@
         <v>10</v>
       </c>
       <c r="F640" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G640" t="s">
         <v>11</v>
@@ -18603,7 +18603,7 @@
         <v>10</v>
       </c>
       <c r="F642" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G642" t="s">
         <v>11</v>
@@ -18649,7 +18649,7 @@
         <v>10</v>
       </c>
       <c r="F644" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G644" t="s">
         <v>11</v>
@@ -18718,7 +18718,7 @@
         <v>10</v>
       </c>
       <c r="F647" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G647" t="s">
         <v>11</v>
@@ -18787,7 +18787,7 @@
         <v>10</v>
       </c>
       <c r="F650" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G650" t="s">
         <v>11</v>
@@ -18925,7 +18925,7 @@
         <v>10</v>
       </c>
       <c r="F656" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G656" t="s">
         <v>40</v>
@@ -19040,7 +19040,7 @@
         <v>10</v>
       </c>
       <c r="F661" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G661" t="s">
         <v>11</v>
@@ -19152,7 +19152,7 @@
         <v>10</v>
       </c>
       <c r="F666" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G666" t="s">
         <v>11</v>
@@ -19244,7 +19244,7 @@
         <v>10</v>
       </c>
       <c r="F670" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G670" t="s">
         <v>40</v>
@@ -19267,7 +19267,7 @@
         <v>10</v>
       </c>
       <c r="F671" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G671" t="s">
         <v>11</v>
@@ -19290,7 +19290,7 @@
         <v>10</v>
       </c>
       <c r="F672" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G672" t="s">
         <v>11</v>
@@ -19313,7 +19313,7 @@
         <v>10</v>
       </c>
       <c r="F673" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G673" t="s">
         <v>11</v>
@@ -19336,7 +19336,7 @@
         <v>10</v>
       </c>
       <c r="F674" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G674" t="s">
         <v>11</v>
@@ -19425,7 +19425,7 @@
         <v>10</v>
       </c>
       <c r="F678" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G678" t="s">
         <v>11</v>
@@ -19471,7 +19471,7 @@
         <v>10</v>
       </c>
       <c r="F680" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G680" t="s">
         <v>11</v>
@@ -19517,7 +19517,7 @@
         <v>10</v>
       </c>
       <c r="F682" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G682" t="s">
         <v>11</v>
@@ -19563,7 +19563,7 @@
         <v>10</v>
       </c>
       <c r="F684" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G684" t="s">
         <v>11</v>
@@ -19609,7 +19609,7 @@
         <v>10</v>
       </c>
       <c r="F686" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G686" t="s">
         <v>11</v>
@@ -19632,7 +19632,7 @@
         <v>10</v>
       </c>
       <c r="F687" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G687" t="s">
         <v>11</v>
@@ -19678,7 +19678,7 @@
         <v>10</v>
       </c>
       <c r="F689" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G689" t="s">
         <v>11</v>
@@ -19701,7 +19701,7 @@
         <v>10</v>
       </c>
       <c r="F690" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G690" t="s">
         <v>11</v>
@@ -19724,7 +19724,7 @@
         <v>10</v>
       </c>
       <c r="F691" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G691" t="s">
         <v>11</v>
@@ -19747,7 +19747,7 @@
         <v>10</v>
       </c>
       <c r="F692" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G692" t="s">
         <v>11</v>
@@ -19767,7 +19767,7 @@
         <v>10</v>
       </c>
       <c r="F693" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G693" t="s">
         <v>11</v>
@@ -19790,7 +19790,7 @@
         <v>10</v>
       </c>
       <c r="F694" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G694" t="s">
         <v>11</v>
@@ -19859,7 +19859,7 @@
         <v>10</v>
       </c>
       <c r="F697" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G697" t="s">
         <v>11</v>
@@ -19905,7 +19905,7 @@
         <v>10</v>
       </c>
       <c r="F699" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G699" t="s">
         <v>11</v>
@@ -19974,7 +19974,7 @@
         <v>10</v>
       </c>
       <c r="F702" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G702" t="s">
         <v>11</v>
@@ -19997,7 +19997,7 @@
         <v>10</v>
       </c>
       <c r="F703" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G703" t="s">
         <v>11</v>
@@ -20066,7 +20066,7 @@
         <v>10</v>
       </c>
       <c r="F706" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G706" t="s">
         <v>11</v>
@@ -20135,7 +20135,7 @@
         <v>10</v>
       </c>
       <c r="F709" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G709" t="s">
         <v>11</v>
@@ -20181,7 +20181,7 @@
         <v>10</v>
       </c>
       <c r="F711" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G711" t="s">
         <v>11</v>
@@ -20250,7 +20250,7 @@
         <v>10</v>
       </c>
       <c r="F714" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G714" t="s">
         <v>11</v>
@@ -20319,7 +20319,7 @@
         <v>10</v>
       </c>
       <c r="F717" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G717" t="s">
         <v>11</v>
@@ -20388,7 +20388,7 @@
         <v>10</v>
       </c>
       <c r="F720" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G720" t="s">
         <v>11</v>
@@ -20503,7 +20503,7 @@
         <v>10</v>
       </c>
       <c r="F725" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G725" t="s">
         <v>40</v>
@@ -20572,7 +20572,7 @@
         <v>10</v>
       </c>
       <c r="F728" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G728" t="s">
         <v>40</v>
@@ -20618,7 +20618,7 @@
         <v>10</v>
       </c>
       <c r="F730" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G730" t="s">
         <v>40</v>
@@ -20641,7 +20641,7 @@
         <v>10</v>
       </c>
       <c r="F731" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G731" t="s">
         <v>40</v>
@@ -20848,7 +20848,7 @@
         <v>10</v>
       </c>
       <c r="F740" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G740" t="s">
         <v>11</v>
@@ -20940,7 +20940,7 @@
         <v>10</v>
       </c>
       <c r="F744" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G744" t="s">
         <v>11</v>
@@ -21009,7 +21009,7 @@
         <v>10</v>
       </c>
       <c r="F747" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G747" t="s">
         <v>40</v>
@@ -21052,7 +21052,7 @@
         <v>10</v>
       </c>
       <c r="F749" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G749" t="s">
         <v>11</v>
@@ -21075,7 +21075,7 @@
         <v>10</v>
       </c>
       <c r="F750" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G750" t="s">
         <v>11</v>
@@ -21144,7 +21144,7 @@
         <v>10</v>
       </c>
       <c r="F753" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G753" t="s">
         <v>11</v>
@@ -21190,7 +21190,7 @@
         <v>10</v>
       </c>
       <c r="F755" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G755" t="s">
         <v>11</v>
@@ -21236,7 +21236,7 @@
         <v>10</v>
       </c>
       <c r="F757" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G757" t="s">
         <v>40</v>
@@ -21305,7 +21305,7 @@
         <v>10</v>
       </c>
       <c r="F760" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G760" t="s">
         <v>11</v>
@@ -21351,7 +21351,7 @@
         <v>10</v>
       </c>
       <c r="F762" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G762" t="s">
         <v>11</v>
@@ -21397,7 +21397,7 @@
         <v>10</v>
       </c>
       <c r="F764" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G764" t="s">
         <v>11</v>
@@ -21443,7 +21443,7 @@
         <v>10</v>
       </c>
       <c r="F766" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G766" t="s">
         <v>11</v>
@@ -21489,7 +21489,7 @@
         <v>10</v>
       </c>
       <c r="F768" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G768" t="s">
         <v>11</v>
@@ -21558,7 +21558,7 @@
         <v>10</v>
       </c>
       <c r="F771" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G771" t="s">
         <v>11</v>
@@ -21604,7 +21604,7 @@
         <v>10</v>
       </c>
       <c r="F773" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G773" t="s">
         <v>11</v>
@@ -21650,7 +21650,7 @@
         <v>10</v>
       </c>
       <c r="F775" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G775" t="s">
         <v>40</v>
@@ -21696,7 +21696,7 @@
         <v>10</v>
       </c>
       <c r="F777" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G777" t="s">
         <v>40</v>
@@ -21742,7 +21742,7 @@
         <v>10</v>
       </c>
       <c r="F779" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G779" t="s">
         <v>11</v>
@@ -21811,7 +21811,7 @@
         <v>10</v>
       </c>
       <c r="F782" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G782" t="s">
         <v>11</v>
@@ -22265,7 +22265,7 @@
         <v>10</v>
       </c>
       <c r="F802" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G802" t="s">
         <v>11</v>
@@ -22334,7 +22334,7 @@
         <v>10</v>
       </c>
       <c r="F805" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G805" t="s">
         <v>11</v>
@@ -22403,7 +22403,7 @@
         <v>10</v>
       </c>
       <c r="F808" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G808" t="s">
         <v>11</v>
@@ -22492,7 +22492,7 @@
         <v>10</v>
       </c>
       <c r="F812" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G812" t="s">
         <v>40</v>
@@ -22538,7 +22538,7 @@
         <v>10</v>
       </c>
       <c r="F814" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G814" t="s">
         <v>40</v>
@@ -22653,7 +22653,7 @@
         <v>10</v>
       </c>
       <c r="F819" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G819" t="s">
         <v>11</v>
@@ -22722,7 +22722,7 @@
         <v>10</v>
       </c>
       <c r="F822" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G822" t="s">
         <v>11</v>
@@ -22768,7 +22768,7 @@
         <v>10</v>
       </c>
       <c r="F824" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G824" t="s">
         <v>11</v>
@@ -22880,7 +22880,7 @@
         <v>10</v>
       </c>
       <c r="F829" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G829" t="s">
         <v>40</v>
@@ -22949,7 +22949,7 @@
         <v>10</v>
       </c>
       <c r="F832" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G832" t="s">
         <v>11</v>
@@ -23087,7 +23087,7 @@
         <v>10</v>
       </c>
       <c r="F838" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G838" t="s">
         <v>40</v>
@@ -23133,7 +23133,7 @@
         <v>10</v>
       </c>
       <c r="F840" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G840" t="s">
         <v>40</v>
@@ -23202,7 +23202,7 @@
         <v>10</v>
       </c>
       <c r="F843" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G843" t="s">
         <v>11</v>
@@ -23265,7 +23265,7 @@
         <v>10</v>
       </c>
       <c r="F846" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G846" t="s">
         <v>11</v>
@@ -23308,7 +23308,7 @@
         <v>10</v>
       </c>
       <c r="F848" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G848" t="s">
         <v>11</v>
@@ -23400,7 +23400,7 @@
         <v>10</v>
       </c>
       <c r="F852" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G852" t="s">
         <v>11</v>
@@ -23469,7 +23469,7 @@
         <v>10</v>
       </c>
       <c r="F855" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G855" t="s">
         <v>40</v>
@@ -23515,7 +23515,7 @@
         <v>10</v>
       </c>
       <c r="F857" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G857" t="s">
         <v>40</v>
@@ -23561,7 +23561,7 @@
         <v>10</v>
       </c>
       <c r="F859" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G859" t="s">
         <v>11</v>
@@ -23607,7 +23607,7 @@
         <v>10</v>
       </c>
       <c r="F861" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G861" t="s">
         <v>11</v>
@@ -23653,7 +23653,7 @@
         <v>10</v>
       </c>
       <c r="F863" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G863" t="s">
         <v>11</v>
@@ -23676,7 +23676,7 @@
         <v>10</v>
       </c>
       <c r="F864" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G864" t="s">
         <v>11</v>
@@ -23699,7 +23699,7 @@
         <v>10</v>
       </c>
       <c r="F865" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G865" t="s">
         <v>11</v>
@@ -23768,7 +23768,7 @@
         <v>10</v>
       </c>
       <c r="F868" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G868" t="s">
         <v>11</v>
@@ -23906,7 +23906,7 @@
         <v>10</v>
       </c>
       <c r="F874" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G874" t="s">
         <v>11</v>
@@ -23975,7 +23975,7 @@
         <v>10</v>
       </c>
       <c r="F877" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G877" t="s">
         <v>11</v>
@@ -23998,7 +23998,7 @@
         <v>10</v>
       </c>
       <c r="F878" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G878" t="s">
         <v>11</v>
